--- a/DungeonsGame/Assets/art/Resources/database/levels.xlsx
+++ b/DungeonsGame/Assets/art/Resources/database/levels.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9144" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9144"/>
   </bookViews>
   <sheets>
     <sheet name="Level" sheetId="1" r:id="rId1"/>
@@ -803,9 +803,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U223"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G234" sqref="G234"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15591,24 +15591,24 @@
         <v>10</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D218" t="s">
-        <v>29</v>
+        <v>62</v>
+      </c>
+      <c r="D218" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="E218" s="6">
         <f>VLOOKUP(D218,Room!$A$1:$C$24,2,FALSE)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F218" s="6">
         <f>VLOOKUP(D218,Room!$A$1:$C$24,3,FALSE)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G218" s="4">
         <v>30</v>
       </c>
       <c r="H218" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I218" s="6" t="s">
         <v>53</v>
@@ -15659,30 +15659,30 @@
         <v>10</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D219" t="s">
-        <v>29</v>
+        <v>62</v>
+      </c>
+      <c r="D219" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="E219" s="6">
         <f>VLOOKUP(D219,Room!$A$1:$C$24,2,FALSE)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F219" s="6">
         <f>VLOOKUP(D219,Room!$A$1:$C$24,3,FALSE)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G219" s="4">
         <v>30</v>
       </c>
       <c r="H219" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I219" s="6" t="s">
         <v>53</v>
       </c>
       <c r="J219" s="6">
-        <f t="shared" ref="J219" si="5">G219*2</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="K219" s="6">
@@ -15744,7 +15744,7 @@
         <v>30</v>
       </c>
       <c r="H220" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I220" s="6" t="s">
         <v>53</v>
@@ -16002,19 +16002,19 @@
   </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3:A1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:XFD1">
-    <cfRule type="duplicateValues" dxfId="3" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1 D1:P1">
-    <cfRule type="duplicateValues" dxfId="2" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:U1">
-    <cfRule type="duplicateValues" dxfId="1" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -16026,7 +16026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/DungeonsGame/Assets/art/Resources/database/levels.xlsx
+++ b/DungeonsGame/Assets/art/Resources/database/levels.xlsx
@@ -13,11 +13,11 @@
   </bookViews>
   <sheets>
     <sheet name="Level" sheetId="1" r:id="rId1"/>
-    <sheet name="Room" sheetId="3" r:id="rId2"/>
+    <sheet name="Room" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
-    <customWorkbookView name="Administrator - 个人视图" guid="{21816B8C-1DCB-4EC0-913C-AD6866401A0F}" mergeInterval="0" personalView="1" maximized="1" xWindow="1911" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
+    <customWorkbookView name="Administrator - 个人视图" guid="{21816B8C-1DCB-4EC0-913C-AD6866401A0F}" mergeInterval="0" personalView="1" maximized="1" xWindow="1911" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -28,7 +28,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" guid="{6E7842A4-EB3C-4B82-9F8B-04DEA4B4773B}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" guid="{74251EC2-4B30-4ED8-9B08-1B6401C7F014}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -538,6 +538,44 @@
 </styleSheet>
 </file>
 
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{EDB84ED6-1B6A-431D-8ADD-8E74C94FB1F9}" diskRevisions="1" revisionId="1" version="2">
+  <header guid="{8E76307F-32F5-4B36-884A-DFFE37F66A56}" dateTime="2016-11-30T20:22:52" maxSheetId="3" userName="Administrator" r:id="rId1">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{EDB84ED6-1B6A-431D-8ADD-8E74C94FB1F9}" dateTime="2016-11-30T20:31:33" maxSheetId="3" userName="Administrator" r:id="rId2" minRId="1">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1" sId="1">
+    <oc r="H3">
+      <v>1</v>
+    </oc>
+    <nc r="H3">
+      <v>100</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -804,8 +842,8 @@
   <dimension ref="A1:U223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -989,7 +1027,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>48</v>
@@ -15994,8 +16032,8 @@
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{21816B8C-1DCB-4EC0-913C-AD6866401A0F}">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F69" sqref="F69"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -16302,7 +16340,7 @@
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{21816B8C-1DCB-4EC0-913C-AD6866401A0F}">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C2" sqref="C2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
